--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61AA417-7D98-4CC2-AEC0-3F24DA561175}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD3B90-0E20-4899-8806-229E1E979206}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slots" sheetId="1" r:id="rId1"/>
+    <sheet name="Role" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +98,36 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RoleN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>UPDATE_HEADER</t>
+  </si>
+  <si>
+    <t>UPDATE_BLOCK</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>QUERY</t>
   </si>
 </sst>
 </file>
@@ -409,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +463,14 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -441,8 +483,15 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E2,Role!A:A,0))</f>
+        <v>CREATE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -455,8 +504,15 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E3,Role!A:A,0))</f>
+        <v>UPDATE_BLOCK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -469,8 +525,15 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E4,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -483,8 +546,15 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E5,Role!A:A,0))</f>
+        <v>UPDATE_BLOCK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -497,8 +567,15 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E6,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -511,8 +588,15 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E7,Role!A:A,0))</f>
+        <v>UPDATE_BLOCK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -525,8 +609,15 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E8,Role!A:A,0))</f>
+        <v>UPDATE_BLOCK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -539,8 +630,15 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E9,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -553,8 +651,15 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E10,Role!A:A,0))</f>
+        <v>QUERY</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -567,8 +672,15 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E11,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -580,6 +692,97 @@
       </c>
       <c r="D12" t="s">
         <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E12,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>INDEX(Role!B:B,MATCH(Slots!E13,Role!A:A,0))</f>
+        <v>NA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12358B74-E17B-4684-AC0D-FC18260B3E3A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/scheme.xlsx
+++ b/scheme.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD3B90-0E20-4899-8806-229E1E979206}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52925B03-4975-40E2-A7C8-1F57DC4328F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,15 +445,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -490,8 +499,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E2,Role!A:A,0))</f>
         <v>CREATE</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>A2&amp;","&amp;B2&amp;","&amp;C2</f>
+        <v>0,B1,Input</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -511,8 +524,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E3,Role!A:A,0))</f>
         <v>UPDATE_BLOCK</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G13" si="0">A3&amp;","&amp;B3&amp;","&amp;C3</f>
+        <v>1,A1,ET</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -532,8 +549,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E4,Role!A:A,0))</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,A2,empty</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -553,8 +574,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E5,Role!A:A,0))</f>
         <v>UPDATE_BLOCK</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>3,A3,Front</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -574,8 +599,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E6,Role!A:A,0))</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>4,C1,Transport</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -595,8 +624,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E7,Role!A:A,0))</f>
         <v>UPDATE_BLOCK</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>5,A1,Bottom</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -616,8 +649,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E8,Role!A:A,0))</f>
         <v>UPDATE_BLOCK</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>6,A2,Top</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -637,8 +674,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E9,Role!A:A,0))</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>7,A3,Empty</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -658,8 +699,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E10,Role!A:A,0))</f>
         <v>QUERY</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>8,DC1,Labeling</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -679,8 +724,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E11,Role!A:A,0))</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>9,DA1,Empty</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -700,8 +749,12 @@
         <f>INDEX(Role!B:B,MATCH(Slots!E12,Role!A:A,0))</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>10,DA2,Ng/OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -720,6 +773,10 @@
       <c r="F13" t="str">
         <f>INDEX(Role!B:B,MATCH(Slots!E13,Role!A:A,0))</f>
         <v>NA</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>11,DD,Grade</v>
       </c>
     </row>
   </sheetData>
